--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(2016-)/其他用品和服务类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(2016-)/其他用品和服务类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>其他服务类类居民消费价格指数(上年=100)</t>
+          <t>其他服务类居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>其他用品类类居民消费价格指数(上年=100)</t>
+          <t>其他用品类居民消费价格指数(上年=100)</t>
         </is>
       </c>
     </row>
@@ -529,6 +529,34 @@
       <c r="D6" t="n">
         <v>109.5</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
